--- a/Source Documents/TSEEQ Sales Sample/Variables/Sales Dashboard Chart Dimensions.xlsx
+++ b/Source Documents/TSEEQ Sales Sample/Variables/Sales Dashboard Chart Dimensions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSEEQ\Source Documents\TSEEQ Sales Sample\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSD4SF\TSEEQ\Source Documents\TSEEQ Sales Sample\Variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0A4DE8-25BC-44B7-901A-18F27508A366}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F747DE73-C962-49BD-A2CF-CCDD2C233AF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{5F9F463C-5202-41FA-8ABC-C69595410BDE}"/>
   </bookViews>
@@ -149,8 +149,20 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> property allows us to disable lines without deleting them (in case we use them again in the future).
-</t>
+          <t xml:space="preserve"> property allows us to disable lines without deleting them (in case we use them again in the future).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AAA684C3-C811-476C-9E62-D4900AABAC63}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>In the NCR (Native Custom Report), Dimensions 1 and 2 are for graphical charts and generally should only be populated with fields with a lower (&lt;1000) number of possible values. Dimensions 3 and 4 are for the tables, and therefore can handle fields with higher cardinality.</t>
         </r>
       </text>
     </comment>
@@ -159,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Dimension</t>
   </si>
@@ -188,15 +200,9 @@
     <t>Product</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>TST</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -228,13 +234,16 @@
   </si>
   <si>
     <t>DivisionName</t>
+  </si>
+  <si>
+    <t>Lowest Dim Allowed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +285,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,7 +322,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -628,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD40FF50-3EDF-4C8F-8797-3FFF294A466A}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,9 +674,10 @@
     <col min="1" max="1" width="32.77734375" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,10 +688,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -665,8 +704,11 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -676,55 +718,70 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -734,22 +791,44 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D120">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576 D1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="E1 C1:C1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source Documents/TSEEQ Sales Sample/Variables/Sales Dashboard Chart Dimensions.xlsx
+++ b/Source Documents/TSEEQ Sales Sample/Variables/Sales Dashboard Chart Dimensions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSD4SF\TSEEQ\Source Documents\TSEEQ Sales Sample\Variables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSEEQ\Source Documents\TSEEQ Sales Sample\Variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F747DE73-C962-49BD-A2CF-CCDD2C233AF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6284DD1-24E0-49D4-A759-71814A7EB27A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{5F9F463C-5202-41FA-8ABC-C69595410BDE}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Dimension</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>NONE SELECTED</t>
   </si>
   <si>
-    <t>ProductName</t>
-  </si>
-  <si>
     <t>Value in dimension selector indicating user does not want to use to use the dimension; not currently used</t>
   </si>
   <si>
@@ -224,16 +218,10 @@
     <t>Product Category</t>
   </si>
   <si>
-    <t>CategoryName</t>
-  </si>
-  <si>
     <t>Shipper</t>
   </si>
   <si>
     <t>Shipper Name</t>
-  </si>
-  <si>
-    <t>DivisionName</t>
   </si>
   <si>
     <t>Lowest Dim Allowed</t>
@@ -322,7 +310,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -330,16 +318,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -666,7 +644,7 @@
   <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,10 +666,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -699,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -710,10 +688,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -724,10 +702,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -738,27 +716,27 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -769,10 +747,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -783,10 +761,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -822,7 +800,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1 C1:C1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Source Documents/TSEEQ Sales Sample/Variables/Sales Dashboard Chart Dimensions.xlsx
+++ b/Source Documents/TSEEQ Sales Sample/Variables/Sales Dashboard Chart Dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSEEQ\Source Documents\TSEEQ Sales Sample\Variables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tc\EEE\TSEEQ.github_5\Source Documents\TSEEQ Sales Sample\Variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6284DD1-24E0-49D4-A759-71814A7EB27A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD854AC-DB69-4534-97F8-08EB21B49D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{5F9F463C-5202-41FA-8ABC-C69595410BDE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F9F463C-5202-41FA-8ABC-C69595410BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Dimension</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>Shipper</t>
-  </si>
-  <si>
-    <t>Shipper Name</t>
   </si>
   <si>
     <t>Lowest Dim Allowed</t>
@@ -644,7 +641,7 @@
   <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
@@ -764,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
